--- a/registros.xlsx
+++ b/registros.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Pontos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pontos!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pontos!$A$1:$I$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID Reg.</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>analista</t>
+  </si>
+  <si>
+    <t>nicoly</t>
+  </si>
+  <si>
+    <t>anlista de rh</t>
   </si>
 </sst>
 </file>
@@ -58,7 +64,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="ddd"/>
+    <numFmt numFmtId="165" formatCode="[$-0416]ddd"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="[hh]:mm:ss"/>
   </numFmts>
@@ -73,7 +79,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,7 +94,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
+        <fgColor rgb="FF00BCD4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,12 +477,42 @@
         <v>0.8454861111111112</v>
       </c>
       <c r="I2" s="5">
-        <f>IF(G2="", "", H2-G2)</f>
+        <f>H2-G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45804</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45804</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.8567708333333335</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.8568287037037037</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3-G3</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2"/>
+  <autoFilter ref="A1:I3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>